--- a/pwr_mgn/eagle_files/BOM.xlsx
+++ b/pwr_mgn/eagle_files/BOM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20500" yWindow="6020" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="20720" yWindow="4260" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="73">
   <si>
     <t>Quantity</t>
   </si>
@@ -226,13 +226,25 @@
   </si>
   <si>
     <t>BQ25010</t>
+  </si>
+  <si>
+    <t>INDUCTOR 10UH 10% 1210 SMD</t>
+  </si>
+  <si>
+    <t>PCD1484CT-ND</t>
+  </si>
+  <si>
+    <t>ELJ-PA100KF</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -244,6 +256,27 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
     </font>
   </fonts>
   <fills count="2">
@@ -263,20 +296,64 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="19">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -609,7 +686,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C14" sqref="C14:I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -626,536 +703,556 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0.1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="1">
         <v>0.1</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>0.1</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="1">
         <v>0.1</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>0.22</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="1">
         <v>0.22</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.13</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="1">
         <v>0.13</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.19</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.19</v>
       </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="1">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.79</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="1">
         <v>0.79</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="1">
+        <v>1</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="C8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.27</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1">
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>0.23</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <v>0.46</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="2">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.44</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <v>0.44</v>
       </c>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="2">
-        <v>1</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>0.1</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <v>0.1</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11">
-      <c r="A12" s="2">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.1</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="1">
         <v>0.1</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="2">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="1">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.02</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="1">
         <v>0.02</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="2">
+      <c r="A14" s="1">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.02</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="1">
         <v>0.06</v>
       </c>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="2">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>3.89</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>3.89</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
+        <f>SUM(I2:I15)</f>
+        <v>6.870000000000001</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
